--- a/biology/Médecine/Jürgen_Wittenstein/Jürgen_Wittenstein.xlsx
+++ b/biology/Médecine/Jürgen_Wittenstein/Jürgen_Wittenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%BCrgen_Wittenstein</t>
+          <t>Jürgen_Wittenstein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jürgen Wittenstein, né le 26 avril 1919 à Tübingen et mort le 14 juin 2015, est un résistant germano-américain. Membre de La Rose blanche, il est connu aux États-Unis sous le nom de George J. Wittenstein.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%BCrgen_Wittenstein</t>
+          <t>Jürgen_Wittenstein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jürgen Wittenstein est né quelques mois après la mort de son père, Oscar Wittenstein (de), ingénieur décédé pendant un vol d'entraînement en septembre 1918, alors que la Première Guerre mondiale se terminait. 
 De 1931 à 1937, il fréquenta un internat à Salem, petite ville non loin du lac de Constance dans le sud de l'Allemagne. Le directeur, un Allemand juif nommé Kurt Hahn, fut emprisonné dès 1933 par les National-Socialistes et il émigra en Écosse. K. Hahn exerça une forte influence sur Jürgen Wittenstein. En 1937, à 18 ans, le jeune homme termina ses études et s'engagea six mois dans le Reichsarbeitsdienst (Service du travail du Reich) puis effectua deux ans de service militaire. Il demanda le 19 décembre 1939 à être admis au sein du NSDAP (parti national socialiste des travailleurs allemands) et fut accepté comme membre le 1er juin 1940.
